--- a/docs/collections/ishimoto/metadata/data.xlsx
+++ b/docs/collections/ishimoto/metadata/data.xlsx
@@ -221,7 +221,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/ishimoto/document/2677072b-e4ee-4486-9132-8e3ca0ff918b</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/88381/full/200,151/0/default.jpg</t>

--- a/docs/collections/ishimoto/metadata/data.xlsx
+++ b/docs/collections/ishimoto/metadata/data.xlsx
@@ -41563,7 +41563,7 @@
         <v>81</v>
       </c>
       <c r="G298" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H298" t="s"/>
       <c r="I298" t="s">
@@ -41641,7 +41641,7 @@
         <v>81</v>
       </c>
       <c r="G299" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H299" t="s"/>
       <c r="I299" t="s">
